--- a/src/assets/files/word.xlsx
+++ b/src/assets/files/word.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>chủ đề 1</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -160,10 +163,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -208,6 +207,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -215,14 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -611,200 +610,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="15" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.35">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dcGumUnzGLfQ8mnF3wDk1TeafWeSemUy4V84EH49EJsbSxjhPPdhRvFb53qjz3lu/bFbyvmOONW/OL3HWQ/lDA==" saltValue="QKrTisJtAbPDfumxugn/SA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
